--- a/EmiMollova/Test Cases Bills Homework/Test Case Bills007.xlsx
+++ b/EmiMollova/Test Cases Bills Homework/Test Case Bills007.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
